--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[生物稀有度].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[生物稀有度].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="22380" windowHeight="11910"/>
   </bookViews>
   <sheets>
     <sheet name="RarityInfo" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
     <t>备注</t>
   </si>
   <si>
-    <t>#FFFFFF</t>
+    <t>#CCCCCC</t>
   </si>
   <si>
     <t>普通</t>
@@ -86,7 +86,7 @@
     <t>测试数据</t>
   </si>
   <si>
-    <t>#5FFF32</t>
+    <t>#71A258</t>
   </si>
   <si>
     <t>稀有</t>
@@ -95,34 +95,34 @@
     <t>Rare</t>
   </si>
   <si>
-    <t>#0055FF</t>
-  </si>
-  <si>
-    <t>超稀有</t>
-  </si>
-  <si>
-    <t>Super Rare</t>
-  </si>
-  <si>
-    <t>#EA00FF</t>
-  </si>
-  <si>
-    <t>特级超稀有</t>
-  </si>
-  <si>
-    <t>Superior Super Rare</t>
-  </si>
-  <si>
-    <t>#FFD600</t>
-  </si>
-  <si>
-    <t>极度稀有</t>
-  </si>
-  <si>
-    <t>Ultra Rare</t>
-  </si>
-  <si>
-    <t>#C8051B</t>
+    <t>#4F60AD</t>
+  </si>
+  <si>
+    <t>超凡</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Epic </t>
+  </si>
+  <si>
+    <t>#8F2A80</t>
+  </si>
+  <si>
+    <t>至尊</t>
+  </si>
+  <si>
+    <t>Ultra</t>
+  </si>
+  <si>
+    <t>#EFC230</t>
+  </si>
+  <si>
+    <t>神话</t>
+  </si>
+  <si>
+    <t>Mythic</t>
+  </si>
+  <si>
+    <t>#922B2F</t>
   </si>
   <si>
     <t>传说</t>
@@ -1143,7 +1143,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F10" sqref="F10"/>
+      <selection pane="topRight" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1294,7 +1294,7 @@
       <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
       </c>
       <c r="E8" s="6" t="s">

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[生物稀有度].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_rarity_info[生物稀有度].xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22380" windowHeight="11910"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="RarityInfo" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="31">
   <si>
     <t>id</t>
   </si>
@@ -35,9 +35,6 @@
     <t>ui_board_color</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
     <t>name_cn</t>
   </si>
   <si>
@@ -53,16 +50,10 @@
     <t>string</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
     <t>序号</t>
   </si>
   <si>
     <t>ui外边框颜色</t>
-  </si>
-  <si>
-    <t>是否有效</t>
   </si>
   <si>
     <t>名字-中文</t>
@@ -1138,22 +1129,22 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F70"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+      <selection pane="topRight" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="3" width="20" customWidth="1"/>
-    <col min="4" max="5" width="47.5" customWidth="1"/>
-    <col min="6" max="6" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="3" max="4" width="47.5" customWidth="1"/>
+    <col min="5" max="5" width="42.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1169,153 +1160,126 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
-    <row r="7" customFormat="1" spans="1:5">
+    <row r="7" customFormat="1" spans="1:4">
       <c r="A7" s="3">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
-    <row r="8" customFormat="1" spans="1:5">
+    <row r="8" customFormat="1" spans="1:4">
       <c r="A8" s="3">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="9" customFormat="1" spans="1:5">
+    <row r="9" customFormat="1" spans="1:4">
       <c r="A9" s="3">
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" ht="15" customHeight="1"/>
